--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>shocking</t>
   </si>
   <si>
     <t>destroying</t>
@@ -97,36 +97,36 @@
     <t>scary</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -139,22 +139,28 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
@@ -166,10 +172,10 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -538,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -649,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>39</v>
@@ -699,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
@@ -749,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
@@ -826,10 +832,10 @@
         <v>0.8</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4482758620689655</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1079,13 @@
         <v>47</v>
       </c>
       <c r="K12">
-        <v>0.4444444444444444</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,25 +1129,25 @@
         <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3684210526315789</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,7 +1179,7 @@
         <v>49</v>
       </c>
       <c r="K14">
-        <v>0.2592592592592592</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.04918032786885246</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1044</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>0.009036144578313253</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1319,19 +1325,43 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1343,21 +1373,45 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18">
+        <v>0.04644808743169399</v>
+      </c>
+      <c r="L18">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1372,7 +1426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1398,18 +1452,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.463768115942029</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1421,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1447,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1458,10 +1512,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1473,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1499,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.391304347826087</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1525,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3829787234042553</v>
+        <v>0.375</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1551,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1577,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3142857142857143</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1603,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3076923076923077</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1629,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1655,15 +1709,15 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2142857142857143</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1681,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
